--- a/excelTemplate/OverdueSearchTemplate.xlsx
+++ b/excelTemplate/OverdueSearchTemplate.xlsx
@@ -227,10 +227,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_vessel_ata%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.invoice_masterbi_demurrage_party%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -244,6 +240,10 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_containers_empty_return_overdue_amount%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.discharge_date%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -417,6 +417,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,12 +431,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,7 +740,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,49 +759,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="16" t="s">
         <v>34</v>
       </c>
@@ -832,22 +832,22 @@
         <v>41</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
